--- a/Learning_Codes/multiple_results.xlsx
+++ b/Learning_Codes/multiple_results.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="B2:F133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131:F133"/>
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Learning_Codes/multiple_results.xlsx
+++ b/Learning_Codes/multiple_results.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="rmse" sheetId="2" r:id="rId2"/>
+    <sheet name="norm_rmse" sheetId="3" r:id="rId3"/>
+    <sheet name="R-squared" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
   <si>
     <t>Tank_2</t>
   </si>
@@ -373,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133:F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1796,4 +1799,1477 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>149.91120418642799</v>
+      </c>
+      <c r="B2" s="1">
+        <v>197.40372455642699</v>
+      </c>
+      <c r="C2" s="1">
+        <v>170.210657623869</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.117643514142714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>149.4845571037356</v>
+      </c>
+      <c r="B3">
+        <v>122.65048553333369</v>
+      </c>
+      <c r="C3">
+        <v>172.87227153486759</v>
+      </c>
+      <c r="D3">
+        <v>0.1152058460998678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>131.10967945531331</v>
+      </c>
+      <c r="B4">
+        <v>74.926591678956015</v>
+      </c>
+      <c r="C4">
+        <v>84.714686595654712</v>
+      </c>
+      <c r="D4">
+        <v>0.1281497823775688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>165.12612958546259</v>
+      </c>
+      <c r="B5">
+        <v>89.15861863748087</v>
+      </c>
+      <c r="C5">
+        <v>103.49588608973789</v>
+      </c>
+      <c r="D5">
+        <v>0.1174588994609588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>140.24910176851401</v>
+      </c>
+      <c r="B6">
+        <v>133.1278462137054</v>
+      </c>
+      <c r="C6">
+        <v>74.722553228175357</v>
+      </c>
+      <c r="D6">
+        <v>0.1250927997870358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>88.629390979022872</v>
+      </c>
+      <c r="B7">
+        <v>79.014063102518335</v>
+      </c>
+      <c r="C7">
+        <v>125.8671756195296</v>
+      </c>
+      <c r="D7">
+        <v>0.12973846933409061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>179.29351372121641</v>
+      </c>
+      <c r="B8">
+        <v>100.4658874008984</v>
+      </c>
+      <c r="C8">
+        <v>144.48466478964119</v>
+      </c>
+      <c r="D8">
+        <v>0.1215985298452552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>128.22944680000001</v>
+      </c>
+      <c r="B9">
+        <v>59.307521280000003</v>
+      </c>
+      <c r="C9">
+        <v>124.3755496</v>
+      </c>
+      <c r="D9">
+        <v>0.124281457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>108.0444516</v>
+      </c>
+      <c r="B10">
+        <v>118.8958767</v>
+      </c>
+      <c r="C10">
+        <v>114.4624196</v>
+      </c>
+      <c r="D10">
+        <v>0.11730526300000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>138.9501161</v>
+      </c>
+      <c r="B11">
+        <v>114.2060355</v>
+      </c>
+      <c r="C11">
+        <v>97.642524039999998</v>
+      </c>
+      <c r="D11">
+        <v>0.120434969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>102.94055950000001</v>
+      </c>
+      <c r="B12">
+        <v>69.743975849999998</v>
+      </c>
+      <c r="C12">
+        <v>149.61046429999999</v>
+      </c>
+      <c r="D12">
+        <v>0.117159971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>148.99301969999999</v>
+      </c>
+      <c r="B13">
+        <v>134.9564962</v>
+      </c>
+      <c r="C13">
+        <v>201.1811218</v>
+      </c>
+      <c r="D13">
+        <v>0.12652481199999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>115.08304149999999</v>
+      </c>
+      <c r="B14">
+        <v>189.40519560000001</v>
+      </c>
+      <c r="C14">
+        <v>102.5095079</v>
+      </c>
+      <c r="D14">
+        <v>0.11573246199999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>145.64675940000001</v>
+      </c>
+      <c r="B15">
+        <v>127.94244620000001</v>
+      </c>
+      <c r="C15">
+        <v>179.48626780000001</v>
+      </c>
+      <c r="D15">
+        <v>0.109556057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>140.70029930000001</v>
+      </c>
+      <c r="B16">
+        <v>143.71858349999999</v>
+      </c>
+      <c r="C16">
+        <v>100.8770475</v>
+      </c>
+      <c r="D16">
+        <v>0.12956910499999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>210.69832740000001</v>
+      </c>
+      <c r="B17">
+        <v>63.757909669999997</v>
+      </c>
+      <c r="C17">
+        <v>188.43945890000001</v>
+      </c>
+      <c r="D17">
+        <v>0.116834231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>96.437550630000004</v>
+      </c>
+      <c r="B18">
+        <v>128.33588589999999</v>
+      </c>
+      <c r="C18">
+        <v>126.9478893</v>
+      </c>
+      <c r="D18">
+        <v>0.12954237800000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>185.42631410000001</v>
+      </c>
+      <c r="B19">
+        <v>113.59432169999999</v>
+      </c>
+      <c r="C19">
+        <v>152.15404530000001</v>
+      </c>
+      <c r="D19">
+        <v>0.13243662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>106.53454549999999</v>
+      </c>
+      <c r="B20">
+        <v>152.2546759</v>
+      </c>
+      <c r="C20">
+        <v>125.6253071</v>
+      </c>
+      <c r="D20">
+        <v>0.11635204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>126.7654469</v>
+      </c>
+      <c r="B21">
+        <v>80.17825904</v>
+      </c>
+      <c r="C21">
+        <v>152.75845799999999</v>
+      </c>
+      <c r="D21">
+        <v>0.108589665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>203.36026759999999</v>
+      </c>
+      <c r="B22">
+        <v>110.00050160000001</v>
+      </c>
+      <c r="C22">
+        <v>143.95157739999999</v>
+      </c>
+      <c r="D22">
+        <v>0.11011127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>179.15694500000001</v>
+      </c>
+      <c r="B23">
+        <v>116.4315577</v>
+      </c>
+      <c r="C23">
+        <v>155.34932280000001</v>
+      </c>
+      <c r="D23">
+        <v>0.122741028</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>144.95026089999999</v>
+      </c>
+      <c r="B24">
+        <v>96.668312779999994</v>
+      </c>
+      <c r="C24">
+        <v>124.33866070000001</v>
+      </c>
+      <c r="D24">
+        <v>0.104737577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>151.1653689</v>
+      </c>
+      <c r="B25">
+        <v>79.751046970000004</v>
+      </c>
+      <c r="C25">
+        <v>75.209408179999997</v>
+      </c>
+      <c r="D25">
+        <v>0.10370813800000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>131.03404850000001</v>
+      </c>
+      <c r="B26">
+        <v>170.82723250000001</v>
+      </c>
+      <c r="C26">
+        <v>196.63413840000001</v>
+      </c>
+      <c r="D26">
+        <v>0.105441796</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>149.85807740000001</v>
+      </c>
+      <c r="B27">
+        <v>91.539128840000004</v>
+      </c>
+      <c r="C27">
+        <v>134.41575689999999</v>
+      </c>
+      <c r="D27">
+        <v>0.10490745</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>192.9822187</v>
+      </c>
+      <c r="B28">
+        <v>81.136263540000002</v>
+      </c>
+      <c r="C28">
+        <v>98.27914346</v>
+      </c>
+      <c r="D28">
+        <v>0.13236395000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>152.59929529999999</v>
+      </c>
+      <c r="B29">
+        <v>73.177555229999996</v>
+      </c>
+      <c r="C29">
+        <v>190.30208300000001</v>
+      </c>
+      <c r="D29">
+        <v>0.111263679</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>135.88266139999999</v>
+      </c>
+      <c r="B30">
+        <v>74.356907590000006</v>
+      </c>
+      <c r="C30">
+        <v>119.9849396</v>
+      </c>
+      <c r="D30">
+        <v>0.107726744</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>166.82125769999999</v>
+      </c>
+      <c r="B31">
+        <v>103.4454255</v>
+      </c>
+      <c r="C31">
+        <v>110.2858236</v>
+      </c>
+      <c r="D31">
+        <v>0.124042029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>142.56826079999999</v>
+      </c>
+      <c r="B32">
+        <v>77.355037060000001</v>
+      </c>
+      <c r="C32">
+        <v>110.3557148</v>
+      </c>
+      <c r="D32">
+        <v>0.10310841</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>130.78326240000001</v>
+      </c>
+      <c r="B33">
+        <v>114.99639519999999</v>
+      </c>
+      <c r="C33">
+        <v>144.3738501</v>
+      </c>
+      <c r="D33">
+        <v>0.100213681</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>117.91084669999999</v>
+      </c>
+      <c r="B34">
+        <v>144.1713594</v>
+      </c>
+      <c r="C34">
+        <v>149.81262390000001</v>
+      </c>
+      <c r="D34">
+        <v>0.115204136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="A1:D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>7.5712733657892606E-2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.101128950365743</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4.9667543566192997E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.117643514142714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7.5497256358612597E-2</v>
+      </c>
+      <c r="B3">
+        <v>6.2833240344432384E-2</v>
+      </c>
+      <c r="C3">
+        <v>5.0444197362366591E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.1152058460998678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6.621701260493229E-2</v>
+      </c>
+      <c r="B4">
+        <v>3.8384521901018757E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.4719781045488581E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.1281497823775688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8.3397045280217519E-2</v>
+      </c>
+      <c r="B5">
+        <v>4.5675517571543832E-2</v>
+      </c>
+      <c r="C5">
+        <v>3.0200143696857279E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.1174588994609588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7.0832879912921351E-2</v>
+      </c>
+      <c r="B6">
+        <v>6.8200734529191162E-2</v>
+      </c>
+      <c r="C6">
+        <v>2.1804071444597371E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.1250927997870358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4.4762320259201287E-2</v>
+      </c>
+      <c r="B7">
+        <v>4.0478513209178377E-2</v>
+      </c>
+      <c r="C7">
+        <v>3.6728093868289638E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.12973846933409061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9.0552288309961843E-2</v>
+      </c>
+      <c r="B8">
+        <v>5.1468180506641252E-2</v>
+      </c>
+      <c r="C8">
+        <v>4.2160687215457508E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.1215985298452552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6.4762348999999997E-2</v>
+      </c>
+      <c r="B9">
+        <v>3.0382948999999999E-2</v>
+      </c>
+      <c r="C9">
+        <v>3.6292838000000001E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.124281457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5.4567906999999999E-2</v>
+      </c>
+      <c r="B10">
+        <v>6.0909768000000003E-2</v>
+      </c>
+      <c r="C10">
+        <v>3.3400179000000002E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.11730526300000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7.0176827999999997E-2</v>
+      </c>
+      <c r="B11">
+        <v>5.8507188000000002E-2</v>
+      </c>
+      <c r="C11">
+        <v>2.8492130000000001E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.120434969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5.1990183000000002E-2</v>
+      </c>
+      <c r="B12">
+        <v>3.5729495E-2</v>
+      </c>
+      <c r="C12">
+        <v>4.3656397E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.117159971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7.5249009000000006E-2</v>
+      </c>
+      <c r="B13">
+        <v>6.9137551000000005E-2</v>
+      </c>
+      <c r="C13">
+        <v>5.8704739999999998E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.12652481199999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5.8122752999999999E-2</v>
+      </c>
+      <c r="B14">
+        <v>9.7031349000000003E-2</v>
+      </c>
+      <c r="C14">
+        <v>2.9912318E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.11573246199999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7.3558973999999999E-2</v>
+      </c>
+      <c r="B15">
+        <v>6.5544280999999996E-2</v>
+      </c>
+      <c r="C15">
+        <v>5.2374167999999999E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.109556057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7.1060762E-2</v>
+      </c>
+      <c r="B16">
+        <v>7.3626321999999994E-2</v>
+      </c>
+      <c r="C16">
+        <v>2.9435963999999998E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.12956910499999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.106413303</v>
+      </c>
+      <c r="B17">
+        <v>3.2662861000000001E-2</v>
+      </c>
+      <c r="C17">
+        <v>5.4986710000000001E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.116834231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4.8705837000000002E-2</v>
+      </c>
+      <c r="B18">
+        <v>6.5745839E-2</v>
+      </c>
+      <c r="C18">
+        <v>3.7043445000000001E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.12954237800000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9.3649660999999995E-2</v>
+      </c>
+      <c r="B19">
+        <v>5.8193808999999999E-2</v>
+      </c>
+      <c r="C19">
+        <v>4.4398616000000002E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.13243662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5.3805327E-2</v>
+      </c>
+      <c r="B20">
+        <v>7.7999320999999996E-2</v>
+      </c>
+      <c r="C20">
+        <v>3.6657516000000001E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.11635204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>6.4022955000000006E-2</v>
+      </c>
+      <c r="B21">
+        <v>4.1074926999999997E-2</v>
+      </c>
+      <c r="C21">
+        <v>4.4574979000000001E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.108589665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.10270720699999999</v>
+      </c>
+      <c r="B22">
+        <v>5.6352715999999997E-2</v>
+      </c>
+      <c r="C22">
+        <v>4.2005132000000001E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.11011127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9.0483311999999996E-2</v>
+      </c>
+      <c r="B23">
+        <v>5.9647311000000001E-2</v>
+      </c>
+      <c r="C23">
+        <v>4.5330995999999998E-2</v>
+      </c>
+      <c r="D23">
+        <v>0.122741028</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7.3207207999999996E-2</v>
+      </c>
+      <c r="B24">
+        <v>4.9522700000000003E-2</v>
+      </c>
+      <c r="C24">
+        <v>3.6282072999999998E-2</v>
+      </c>
+      <c r="D24">
+        <v>0.104737577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>7.6346152E-2</v>
+      </c>
+      <c r="B25">
+        <v>4.0856071000000001E-2</v>
+      </c>
+      <c r="C25">
+        <v>2.1946137000000001E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.10370813800000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6.6178816000000001E-2</v>
+      </c>
+      <c r="B26">
+        <v>8.7513945999999995E-2</v>
+      </c>
+      <c r="C26">
+        <v>5.7377925000000003E-2</v>
+      </c>
+      <c r="D26">
+        <v>0.105441796</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>7.5685898000000001E-2</v>
+      </c>
+      <c r="B27">
+        <v>4.6895042999999997E-2</v>
+      </c>
+      <c r="C27">
+        <v>3.9222570999999998E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.10490745</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>9.7465767999999994E-2</v>
+      </c>
+      <c r="B28">
+        <v>4.1565706000000001E-2</v>
+      </c>
+      <c r="C28">
+        <v>2.8677893999999999E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.13236395000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7.7070350999999995E-2</v>
+      </c>
+      <c r="B29">
+        <v>3.7488499000000002E-2</v>
+      </c>
+      <c r="C29">
+        <v>5.5530224000000003E-2</v>
+      </c>
+      <c r="D29">
+        <v>0.111263679</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>6.8627611000000005E-2</v>
+      </c>
+      <c r="B30">
+        <v>3.8092676999999998E-2</v>
+      </c>
+      <c r="C30">
+        <v>3.5011658000000001E-2</v>
+      </c>
+      <c r="D30">
+        <v>0.107726744</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>8.4253160999999993E-2</v>
+      </c>
+      <c r="B31">
+        <v>5.2994580999999999E-2</v>
+      </c>
+      <c r="C31">
+        <v>3.2181448000000001E-2</v>
+      </c>
+      <c r="D31">
+        <v>0.124042029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7.2004177000000003E-2</v>
+      </c>
+      <c r="B32">
+        <v>3.9628600999999999E-2</v>
+      </c>
+      <c r="C32">
+        <v>3.2201844E-2</v>
+      </c>
+      <c r="D32">
+        <v>0.10310841</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>6.6052152000000003E-2</v>
+      </c>
+      <c r="B33">
+        <v>5.8912081999999998E-2</v>
+      </c>
+      <c r="C33">
+        <v>4.2128350000000002E-2</v>
+      </c>
+      <c r="D33">
+        <v>0.100213681</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5.9550933E-2</v>
+      </c>
+      <c r="B34">
+        <v>7.3858273000000002E-2</v>
+      </c>
+      <c r="C34">
+        <v>4.3715388000000001E-2</v>
+      </c>
+      <c r="D34">
+        <v>0.115204136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.94022822123405003</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.91290282007474499</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.86564506953782505</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.93758917555653398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.94056795351652556</v>
+      </c>
+      <c r="B3">
+        <v>0.96637734787588958</v>
+      </c>
+      <c r="C3">
+        <v>0.86141036571127505</v>
+      </c>
+      <c r="D3">
+        <v>0.94014878204470254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.95428091904793566</v>
+      </c>
+      <c r="B4">
+        <v>0.98745226438546496</v>
+      </c>
+      <c r="C4">
+        <v>0.96671891058375303</v>
+      </c>
+      <c r="D4">
+        <v>0.92594409303040859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.92747969372062089</v>
+      </c>
+      <c r="B5">
+        <v>0.98223275687394918</v>
+      </c>
+      <c r="C5">
+        <v>0.95032632173687104</v>
+      </c>
+      <c r="D5">
+        <v>0.93778490306812112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.94768477149013253</v>
+      </c>
+      <c r="B6">
+        <v>0.96038759190621825</v>
+      </c>
+      <c r="C6">
+        <v>0.97410693284081784</v>
+      </c>
+      <c r="D6">
+        <v>0.92943512077809842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.9791078311378929</v>
+      </c>
+      <c r="B7">
+        <v>0.98604588908688418</v>
+      </c>
+      <c r="C7">
+        <v>0.92653084093475513</v>
+      </c>
+      <c r="D7">
+        <v>0.92409655303301796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.91450176340976586</v>
+      </c>
+      <c r="B8">
+        <v>0.97744043661335744</v>
+      </c>
+      <c r="C8">
+        <v>0.90318924396680611</v>
+      </c>
+      <c r="D8">
+        <v>0.93332230593942778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.95626757799999995</v>
+      </c>
+      <c r="B9">
+        <v>0.99213836399999999</v>
+      </c>
+      <c r="C9">
+        <v>0.92826186200000005</v>
+      </c>
+      <c r="D9">
+        <v>0.93034752200000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.96895205100000004</v>
+      </c>
+      <c r="B10">
+        <v>0.96840437400000001</v>
+      </c>
+      <c r="C10">
+        <v>0.93924166099999995</v>
+      </c>
+      <c r="D10">
+        <v>0.93794754599999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.94864936200000005</v>
+      </c>
+      <c r="B11">
+        <v>0.97084778699999996</v>
+      </c>
+      <c r="C11">
+        <v>0.95578617200000004</v>
+      </c>
+      <c r="D11">
+        <v>0.93459226399999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.97181610399999996</v>
+      </c>
+      <c r="B12">
+        <v>0.98912806499999995</v>
+      </c>
+      <c r="C12">
+        <v>0.89619841</v>
+      </c>
+      <c r="D12">
+        <v>0.93810116799999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.94095816200000004</v>
+      </c>
+      <c r="B13">
+        <v>0.95929188399999998</v>
+      </c>
+      <c r="C13">
+        <v>0.81230418800000004</v>
+      </c>
+      <c r="D13">
+        <v>0.92781028399999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.96477502699999995</v>
+      </c>
+      <c r="B14">
+        <v>0.91981794400000005</v>
+      </c>
+      <c r="C14">
+        <v>0.95126865599999999</v>
+      </c>
+      <c r="D14">
+        <v>0.93960036300000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.94358044100000005</v>
+      </c>
+      <c r="B15">
+        <v>0.963413344</v>
+      </c>
+      <c r="C15">
+        <v>0.85060276099999999</v>
+      </c>
+      <c r="D15">
+        <v>0.94587514800000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.94734761899999997</v>
+      </c>
+      <c r="B16">
+        <v>0.95383431699999999</v>
+      </c>
+      <c r="C16">
+        <v>0.95280838899999998</v>
+      </c>
+      <c r="D16">
+        <v>0.92429459999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.88192710500000004</v>
+      </c>
+      <c r="B17">
+        <v>0.990914234</v>
+      </c>
+      <c r="C17">
+        <v>0.83532648099999995</v>
+      </c>
+      <c r="D17">
+        <v>0.93844488800000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.97526451999999997</v>
+      </c>
+      <c r="B18">
+        <v>0.963187982</v>
+      </c>
+      <c r="C18">
+        <v>0.925263795</v>
+      </c>
+      <c r="D18">
+        <v>0.92432582900000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.90855273199999997</v>
+      </c>
+      <c r="B19">
+        <v>0.97115924200000003</v>
+      </c>
+      <c r="C19">
+        <v>0.89263885700000001</v>
+      </c>
+      <c r="D19">
+        <v>0.92090662899999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.96981377000000002</v>
+      </c>
+      <c r="B20">
+        <v>0.94818748500000005</v>
+      </c>
+      <c r="C20">
+        <v>0.92681293099999995</v>
+      </c>
+      <c r="D20">
+        <v>0.93895192999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.95726046499999995</v>
+      </c>
+      <c r="B21">
+        <v>0.98563165799999997</v>
+      </c>
+      <c r="C21">
+        <v>0.89178422000000002</v>
+      </c>
+      <c r="D21">
+        <v>0.94682580299999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.89000822499999999</v>
+      </c>
+      <c r="B22">
+        <v>0.97295526300000001</v>
+      </c>
+      <c r="C22">
+        <v>0.90390231399999998</v>
+      </c>
+      <c r="D22">
+        <v>0.94532517299999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.91463196000000002</v>
+      </c>
+      <c r="B23">
+        <v>0.96970054500000002</v>
+      </c>
+      <c r="C23">
+        <v>0.88808230300000002</v>
+      </c>
+      <c r="D23">
+        <v>0.93206346299999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.94411876500000003</v>
+      </c>
+      <c r="B24">
+        <v>0.97911369100000001</v>
+      </c>
+      <c r="C24">
+        <v>0.92830440800000003</v>
+      </c>
+      <c r="D24">
+        <v>0.95053147500000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.93922392799999999</v>
+      </c>
+      <c r="B25">
+        <v>0.98578436700000005</v>
+      </c>
+      <c r="C25">
+        <v>0.97376841999999997</v>
+      </c>
+      <c r="D25">
+        <v>0.95149912599999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.95433364600000004</v>
+      </c>
+      <c r="B26">
+        <v>0.93477597700000004</v>
+      </c>
+      <c r="C26">
+        <v>0.82069270599999999</v>
+      </c>
+      <c r="D26">
+        <v>0.949864017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.94027058500000005</v>
+      </c>
+      <c r="B27">
+        <v>0.98127132900000003</v>
+      </c>
+      <c r="C27">
+        <v>0.91621227199999999</v>
+      </c>
+      <c r="D27">
+        <v>0.95037087799999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.90094815500000003</v>
+      </c>
+      <c r="B28">
+        <v>0.98528624799999998</v>
+      </c>
+      <c r="C28">
+        <v>0.95520775499999999</v>
+      </c>
+      <c r="D28">
+        <v>0.92099339400000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.93806544300000005</v>
+      </c>
+      <c r="B29">
+        <v>0.98803123999999998</v>
+      </c>
+      <c r="C29">
+        <v>0.83205497500000003</v>
+      </c>
+      <c r="D29">
+        <v>0.94417473699999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.95089156500000005</v>
+      </c>
+      <c r="B30">
+        <v>0.987642346</v>
+      </c>
+      <c r="C30">
+        <v>0.93323734300000005</v>
+      </c>
+      <c r="D30">
+        <v>0.94766755499999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.92598312599999999</v>
+      </c>
+      <c r="B31">
+        <v>0.97608249000000002</v>
+      </c>
+      <c r="C31">
+        <v>0.94359476200000003</v>
+      </c>
+      <c r="D31">
+        <v>0.930615627</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.94594029099999999</v>
+      </c>
+      <c r="B32">
+        <v>0.98662571399999999</v>
+      </c>
+      <c r="C32">
+        <v>0.94352324399999998</v>
+      </c>
+      <c r="D32">
+        <v>0.95205844500000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.95450828899999995</v>
+      </c>
+      <c r="B33">
+        <v>0.97044289800000005</v>
+      </c>
+      <c r="C33">
+        <v>0.90333769399999997</v>
+      </c>
+      <c r="D33">
+        <v>0.95471254000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.96302267500000005</v>
+      </c>
+      <c r="B34">
+        <v>0.95354297899999996</v>
+      </c>
+      <c r="C34">
+        <v>0.89591768599999999</v>
+      </c>
+      <c r="D34">
+        <v>0.94015056100000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>